--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,418 +43,466 @@
     <t>return</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>motor</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>1</t>
+    <t>side</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>otherwise</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>wo</t>
   </si>
   <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>seal</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>loud</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>eggs</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>needs</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>heat</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>design</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>away</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>ordered</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>buy</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>pan</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>time</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>beautifully</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>mas</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>satisfied</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>pressure</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>ice</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>ox</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>gift</t>
   </si>
   <si>
     <t>sturdy</t>
@@ -463,16 +511,13 @@
     <t>nice</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>years</t>
-  </si>
-  <si>
-    <t>quality</t>
   </si>
   <si>
     <t>works</t>
@@ -842,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +895,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -932,16 +977,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K3">
-        <v>0.9139784946236559</v>
+        <v>0.90625</v>
       </c>
       <c r="L3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -953,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,13 +1006,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1011,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1032,16 +1077,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1053,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1061,13 +1106,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1079,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K6">
         <v>0.8478260869565217</v>
@@ -1111,13 +1156,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1129,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K7">
-        <v>0.8359133126934984</v>
+        <v>0.8440677966101695</v>
       </c>
       <c r="L7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="M7">
-        <v>540</v>
+        <v>249</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1153,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1161,13 +1206,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8592592592592593</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1179,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K8">
-        <v>0.823728813559322</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L8">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1203,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1211,13 +1256,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8493150684931506</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1229,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1253,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1261,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8207547169811321</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="D10">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1279,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K10">
-        <v>0.6447368421052632</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L10">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1303,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1311,13 +1356,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8113207547169812</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1329,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11">
-        <v>0.6438356164383562</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1353,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1361,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7984496124031008</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K12">
-        <v>0.6060606060606061</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L12">
         <v>20</v>
@@ -1403,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1411,13 +1456,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7846153846153846</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1429,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K13">
-        <v>0.5945945945945946</v>
+        <v>0.675</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1453,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1461,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7635135135135135</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1479,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K14">
-        <v>0.575</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1503,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1511,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7628205128205128</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1529,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K15">
-        <v>0.5625</v>
+        <v>0.5765765765765766</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1553,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1561,13 +1606,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7547169811320755</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1582,16 +1627,16 @@
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1603,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1611,13 +1656,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1629,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K17">
-        <v>0.5314285714285715</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1653,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1661,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7471264367816092</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1679,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K18">
-        <v>0.492063492063492</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1703,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1711,13 +1756,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7464788732394366</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1729,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K19">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1753,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1761,13 +1806,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.74</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1779,31 +1824,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K20">
-        <v>0.4706355591311344</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L20">
-        <v>585</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>588</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>658</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1811,49 +1856,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7307692307692307</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>31</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>38</v>
-      </c>
-      <c r="D21">
-        <v>38</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21">
-        <v>0.4691358024691358</v>
-      </c>
-      <c r="L21">
-        <v>38</v>
-      </c>
-      <c r="M21">
-        <v>38</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1861,13 +1906,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7256637168141593</v>
+        <v>0.75</v>
       </c>
       <c r="C22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1879,31 +1924,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="K22">
-        <v>0.3802816901408451</v>
+        <v>0.4448025785656728</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>552</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>557</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1911,13 +1956,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1929,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K23">
-        <v>0.34375</v>
+        <v>0.417910447761194</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1953,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1961,13 +2006,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6545454545454545</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1979,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="K24">
-        <v>0.336986301369863</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="L24">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2003,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>484</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2011,13 +2056,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2029,19 +2074,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K25">
-        <v>0.3076923076923077</v>
+        <v>0.375</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2053,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2061,13 +2106,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.65</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2079,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K26">
-        <v>0.2941176470588235</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2103,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2111,13 +2156,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2129,31 +2174,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="K27">
-        <v>0.2289156626506024</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2161,13 +2206,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6296296296296297</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2179,19 +2224,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K28">
-        <v>0.2065217391304348</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2200,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2211,13 +2256,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.625</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2229,31 +2274,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K29">
-        <v>0.2045454545454546</v>
+        <v>0.3125</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2261,13 +2306,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6172839506172839</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2279,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K30">
-        <v>0.1683168316831683</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2303,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2311,13 +2356,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6116504854368932</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2329,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K31">
-        <v>0.1655629139072848</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2353,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2361,13 +2406,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5952380952380952</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2379,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K32">
-        <v>0.1526717557251908</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2403,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2411,13 +2456,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2429,19 +2474,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K33">
-        <v>0.1377245508982036</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2453,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2461,13 +2506,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5769230769230769</v>
+        <v>0.625</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2479,31 +2524,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K34">
-        <v>0.1351351351351351</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L34">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>352</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2511,13 +2556,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5769230769230769</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2529,19 +2574,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K35">
-        <v>0.1325301204819277</v>
+        <v>0.1729323308270677</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2553,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>144</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2561,13 +2606,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5757575757575758</v>
+        <v>0.62</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D36">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2579,31 +2624,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K36">
-        <v>0.09134615384615384</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>189</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2611,13 +2656,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5588235294117647</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2629,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>41</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37">
+        <v>0.1485148514851485</v>
+      </c>
+      <c r="L37">
         <v>15</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K37">
-        <v>0.06614785992217899</v>
-      </c>
-      <c r="L37">
-        <v>17</v>
-      </c>
       <c r="M37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2653,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>240</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2661,13 +2706,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5555555555555556</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2679,31 +2724,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K38">
-        <v>0.0576923076923077</v>
+        <v>0.1385542168674699</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N38">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>392</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2711,13 +2756,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5474860335195531</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C39">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2729,31 +2774,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K39">
-        <v>0.05305039787798409</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>714</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2761,13 +2806,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5333333333333333</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2779,31 +2824,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K40">
-        <v>0.04498714652956298</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>743</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2811,13 +2856,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5172413793103449</v>
+        <v>0.5586592178770949</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2829,31 +2874,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K41">
-        <v>0.03463203463203463</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N41">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>892</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2861,13 +2906,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5121951219512195</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2879,7 +2924,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42">
+        <v>0.07211538461538461</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>33</v>
+      </c>
+      <c r="N42">
+        <v>0.91</v>
+      </c>
+      <c r="O42">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2887,13 +2956,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4848484848484849</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,7 +2974,31 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K43">
+        <v>0.06614785992217899</v>
+      </c>
+      <c r="L43">
         <v>17</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2913,13 +3006,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4705882352941176</v>
+        <v>0.53</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2931,7 +3024,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K44">
+        <v>0.05858854860186418</v>
+      </c>
+      <c r="L44">
+        <v>44</v>
+      </c>
+      <c r="M44">
+        <v>48</v>
+      </c>
+      <c r="N44">
+        <v>0.92</v>
+      </c>
+      <c r="O44">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2939,13 +3056,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4698795180722892</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C45">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2957,7 +3074,31 @@
         <v>0</v>
       </c>
       <c r="H45">
+        <v>16</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45">
+        <v>0.05648267008985879</v>
+      </c>
+      <c r="L45">
         <v>44</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2965,13 +3106,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.46875</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2983,7 +3124,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K46">
+        <v>0.05211726384364821</v>
+      </c>
+      <c r="L46">
+        <v>48</v>
+      </c>
+      <c r="M46">
+        <v>56</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>873</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2991,13 +3156,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4571428571428571</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3009,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3017,13 +3182,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.45</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="C48">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3035,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3043,13 +3208,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4318181818181818</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3061,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3069,13 +3234,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.425531914893617</v>
+        <v>0.5</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3095,13 +3260,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4231805929919137</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="C51">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3113,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>214</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3121,13 +3286,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4230769230769231</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3147,13 +3312,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4142857142857143</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C53">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3165,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3173,13 +3338,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4067796610169492</v>
+        <v>0.4841269841269841</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3191,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3199,13 +3364,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.391304347826087</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3217,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3225,7 +3390,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3846153846153846</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C56">
         <v>15</v>
@@ -3243,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3251,13 +3416,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3838383838383838</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C57">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3269,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3277,13 +3442,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3774834437086093</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3295,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3303,13 +3468,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3693693693693694</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="C59">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D59">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3321,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3329,25 +3494,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3672316384180791</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3355,13 +3520,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3608247422680412</v>
+        <v>0.4123989218328841</v>
       </c>
       <c r="C61">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D61">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3373,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3381,13 +3546,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3552631578947368</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3399,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3407,7 +3572,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3442622950819672</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="C63">
         <v>21</v>
@@ -3425,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3433,13 +3598,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3435374149659864</v>
+        <v>0.4</v>
       </c>
       <c r="C64">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3451,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>193</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3459,13 +3624,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3398058252427185</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3477,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3485,13 +3650,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3333333333333333</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3503,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3511,13 +3676,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3260869565217391</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3529,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3537,13 +3702,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3225806451612903</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3555,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>126</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3563,13 +3728,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3191489361702128</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3581,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3589,13 +3754,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2689655172413793</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3607,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3615,13 +3780,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.25</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3633,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3641,13 +3806,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2408163265306122</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C72">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="D72">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3659,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>558</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3667,13 +3832,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2361111111111111</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3685,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3693,13 +3858,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2266666666666667</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3711,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3719,13 +3884,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2240802675585284</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C75">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D75">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3737,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3745,13 +3910,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2235294117647059</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D76">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3763,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3771,13 +3936,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.217948717948718</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="C77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3789,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3797,13 +3962,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2170542635658915</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D78">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3815,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3823,13 +3988,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2073170731707317</v>
+        <v>0.2896551724137931</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3841,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3849,13 +4014,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2070707070707071</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="C80">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3867,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3875,13 +4040,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2054794520547945</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3893,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3901,25 +4066,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C82">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D82">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3927,13 +4092,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1877729257641921</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3945,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>186</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3953,13 +4118,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1855670103092784</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="C84">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3971,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3979,25 +4144,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1851851851851852</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C85">
         <v>15</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4005,13 +4170,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1809523809523809</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4023,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>86</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4031,25 +4196,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1769911504424779</v>
+        <v>0.2375690607734807</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4057,25 +4222,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1712707182320442</v>
+        <v>0.233502538071066</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D88">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4083,25 +4248,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1566579634464752</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C89">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="E89">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>646</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4109,25 +4274,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1388888888888889</v>
+        <v>0.2140468227424749</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E90">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>93</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4135,13 +4300,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1365853658536585</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4153,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>354</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4161,25 +4326,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1351351351351351</v>
+        <v>0.1830065359477124</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D92">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>96</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4187,13 +4352,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1263736263736264</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="C93">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4205,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4213,13 +4378,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1172413793103448</v>
+        <v>0.15</v>
       </c>
       <c r="C94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4231,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4239,25 +4404,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.108695652173913</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C95">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4265,13 +4430,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1072463768115942</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C96">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4283,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>308</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4291,25 +4456,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1052631578947368</v>
+        <v>0.1295843520782396</v>
       </c>
       <c r="C97">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D97">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>136</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4317,13 +4482,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1006289308176101</v>
+        <v>0.1241379310344828</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4335,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4343,13 +4508,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.09926470588235294</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="C99">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4361,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>245</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4369,25 +4534,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.08539944903581267</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="C100">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D100">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E100">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>332</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4395,25 +4560,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.07653061224489796</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>362</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4421,25 +4586,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.06829268292682927</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C102">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>382</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4447,25 +4612,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.06601466992665037</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D103">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>382</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4473,25 +4638,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.06349206349206349</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D104">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E104">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4499,25 +4664,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.06189555125725339</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="C105">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E105">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>485</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4525,25 +4690,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.06027397260273973</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="C106">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D106">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E106">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4551,25 +4716,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.05313588850174216</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="C107">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1087</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4577,7 +4742,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.04775280898876404</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C108">
         <v>17</v>
@@ -4595,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>339</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4603,25 +4768,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.0467032967032967</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="C109">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D109">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E109">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F109">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>347</v>
+        <v>323</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4629,25 +4794,285 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.03574788334901223</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="C110">
+        <v>24</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+      <c r="E110">
+        <v>0.04</v>
+      </c>
+      <c r="F110">
+        <v>0.96</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.0851581508515815</v>
+      </c>
+      <c r="C111">
+        <v>35</v>
+      </c>
+      <c r="D111">
         <v>38</v>
       </c>
-      <c r="D110">
-        <v>47</v>
-      </c>
-      <c r="E110">
-        <v>0.19</v>
-      </c>
-      <c r="F110">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>1025</v>
+      <c r="E111">
+        <v>0.08</v>
+      </c>
+      <c r="F111">
+        <v>0.92</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.07321772639691715</v>
+      </c>
+      <c r="C112">
+        <v>38</v>
+      </c>
+      <c r="D112">
+        <v>41</v>
+      </c>
+      <c r="E112">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F112">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="C113">
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>22</v>
+      </c>
+      <c r="E113">
+        <v>0.05</v>
+      </c>
+      <c r="F113">
+        <v>0.95</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="C114">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>0.05</v>
+      </c>
+      <c r="F114">
+        <v>0.95</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>0.05651105651105651</v>
+      </c>
+      <c r="C115">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>0.15</v>
+      </c>
+      <c r="F115">
+        <v>0.85</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>0.05589519650655022</v>
+      </c>
+      <c r="C116">
+        <v>64</v>
+      </c>
+      <c r="D116">
+        <v>76</v>
+      </c>
+      <c r="E116">
+        <v>0.16</v>
+      </c>
+      <c r="F116">
+        <v>0.84</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>0.05534709193245779</v>
+      </c>
+      <c r="C117">
+        <v>59</v>
+      </c>
+      <c r="D117">
+        <v>65</v>
+      </c>
+      <c r="E117">
+        <v>0.09</v>
+      </c>
+      <c r="F117">
+        <v>0.91</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>0.05494505494505494</v>
+      </c>
+      <c r="C118">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>22</v>
+      </c>
+      <c r="E118">
+        <v>0.09</v>
+      </c>
+      <c r="F118">
+        <v>0.91</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>0.04065040650406504</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>0.12</v>
+      </c>
+      <c r="F119">
+        <v>0.88</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>0.02798507462686567</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+      <c r="D120">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>0.29</v>
+      </c>
+      <c r="F120">
+        <v>0.71</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
